--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/17/word_level_predictions_17.xlsx
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,59 +4761,59 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>8</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Locating</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>2</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G183" s="2" t="b">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G186" s="2" t="b">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/17/word_level_predictions_17.xlsx
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,59 +4761,59 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>Locating</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G183" s="2" t="b">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G186" s="2" t="b">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
